--- a/test/testcases/testcase28_manual_sql_notifications.xlsx
+++ b/test/testcases/testcase28_manual_sql_notifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A657227-4D1F-4C19-AB24-EEDA6AF83845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B241CF7-7E32-4E5F-8CF6-883F71FD534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>sourcequerymode</t>
   </si>
@@ -140,21 +140,9 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>oracle</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
-    <t>raw_oracle_database_connection</t>
-  </si>
-  <si>
-    <t>/app/test/sql/sourcesql</t>
-  </si>
-  <si>
-    <t>/app/test/sql/targetsql</t>
-  </si>
-  <si>
     <t>likeobjectcompare</t>
   </si>
   <si>
@@ -164,16 +152,31 @@
     <t>testcase28_manual_sql_notifications</t>
   </si>
   <si>
-    <t>patientswithbirthdaytoday</t>
-  </si>
-  <si>
-    <t>patientswithnotifications</t>
-  </si>
-  <si>
-    <t>tc28_oracle_src_query.sql</t>
-  </si>
-  <si>
-    <t>tc28_oracle_tgt_query.sql</t>
+    <t>patientsrc</t>
+  </si>
+  <si>
+    <t>raw_snowflake_sql_connection</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>tc28_src_query.sql</t>
+  </si>
+  <si>
+    <t>patienttgt</t>
+  </si>
+  <si>
+    <t>tc28_tgt_query.sql</t>
+  </si>
+  <si>
+    <t>source_to_target</t>
+  </si>
+  <si>
+    <t>test\\sql\\targetsql</t>
+  </si>
+  <si>
+    <t>test\\sql\\sourcesql</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +588,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -617,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -625,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -633,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -686,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -702,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -778,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,14 +802,16 @@
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +856,7 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B7" xr:uid="{5C998984-B12B-4920-B7BE-2FCA4650DBA8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B20" xr:uid="{5C998984-B12B-4920-B7BE-2FCA4650DBA8}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B14 B3" xr:uid="{01C4EF0D-7247-4C84-B339-7110C6C1DDBE}">
@@ -860,8 +865,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B23" xr:uid="{287F7A43-6C4E-4AC8-8370-E84529DD0FCD}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B6" xr:uid="{721A2F5F-A396-4976-9BDA-1B141D8C3645}">
-      <formula1>"aws-s3,redshift,oracle,mysql"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B19" xr:uid="{B12BDF02-F4F4-4B2D-87FA-397508D57CB2}">
+      <formula1>"aws-s3,redshift,oracle,mysql,snowflake"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/testcases/testcase28_manual_sql_notifications.xlsx
+++ b/test/testcases/testcase28_manual_sql_notifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Snowflake\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B241CF7-7E32-4E5F-8CF6-883F71FD534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE8D3CF-9120-4EE0-849C-E2CA9528E4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,10 +173,10 @@
     <t>source_to_target</t>
   </si>
   <si>
-    <t>test\\sql\\targetsql</t>
-  </si>
-  <si>
-    <t>test\\sql\\sourcesql</t>
+    <t>test/sql/sourcesql</t>
+  </si>
+  <si>
+    <t>test/sql/targetsql</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
